--- a/Output/T3_NW2000.xlsx
+++ b/Output/T3_NW2000.xlsx
@@ -26,8 +26,7 @@
   </si>
   <si>
     <t xml:space="preserve">Difference, 
- NJ-PA
- (iii)</t>
+ NJ-PA (iii)</t>
   </si>
   <si>
     <t xml:space="preserve">1. FTE employment before, 
